--- a/data/trans_orig/MOL_RUIDO_OCIO_NOCHE-Clase-trans_orig.xlsx
+++ b/data/trans_orig/MOL_RUIDO_OCIO_NOCHE-Clase-trans_orig.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Media" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Media" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -37,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,48 +53,6 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -105,11 +65,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -497,404 +457,439 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Molestia del ruido del ocio durante la noche en el interior de la vivienda (tasa de respuesta: 99,8%)</t>
+          <t>Molestia del ruido del ocio durante la noche en el interior de la vivienda (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n"/>
+      <c r="A2" s="3" t="n"/>
       <c r="B2" s="2" t="n"/>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
     </row>
     <row r="3" hidden="1">
-      <c r="A3" s="4" t="n"/>
+      <c r="A3" s="3" t="n"/>
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Grupo I y II</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>2,59</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,52</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,55</t>
-        </is>
+      <c r="C4" s="4" t="n">
+        <v>2.586576453898952</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>2.523704592731804</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>2.554831772927592</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>2,29; 2,88</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>2,26; 2,86</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>2,35; 2,78</t>
-        </is>
+      <c r="A5" s="3" t="n"/>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>2.294902146515469</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>2.258568502815563</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>2.354842724657611</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="3" t="n"/>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>2.883942728146252</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>2.86482816676501</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>2.78413294353529</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>Grupo III</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>2,48</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>2,45</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,46</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>2,11; 2,9</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>2,12; 2,81</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>2,21; 2,73</t>
-        </is>
+      <c r="C7" s="4" t="n">
+        <v>2.483208024063078</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>2.445248539883226</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>2.461381537104433</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>2.105896813179179</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>2.121580597657504</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>2.208869782543186</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>2.898055681191437</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>2.814340664675164</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>2.725579092588866</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>Grupo IV y V</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,98</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,72</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,88</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>1,53; 2,52</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>1,25; 2,37</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>1,52; 2,3</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="C10" s="4" t="n">
+        <v>1.977492260876748</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>1.715913108191984</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>1.879460758037678</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>1.530012295976365</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>1.246010625483887</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>1.515616221184684</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>2.522384749352975</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>2.365740783058289</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>2.297474181297313</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>Grupo VI</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,96</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>2,38</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>2,17</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>1,61; 2,35</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>1,97; 2,87</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>1,89; 2,51</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="C13" s="4" t="n">
+        <v>1.956855868977741</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>2.377809810006726</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>2.165007352471321</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>1.612065315242641</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>1.966149135113055</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>1.892336504416712</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>2.345013838190591</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>2.871379332083577</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>2.511762069966136</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
         <is>
           <t>Grupo VII</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>2,19</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>2,25</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>2,23</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>1,51; 3,06</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>1,73; 2,79</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>1,83; 2,74</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="C16" s="4" t="n">
+        <v>2.191994459006636</v>
+      </c>
+      <c r="D16" s="4" t="n">
+        <v>2.250791953987372</v>
+      </c>
+      <c r="E16" s="4" t="n">
+        <v>2.229497494059089</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n"/>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="n">
+        <v>1.512890695051287</v>
+      </c>
+      <c r="D17" s="4" t="n">
+        <v>1.728509924106025</v>
+      </c>
+      <c r="E17" s="4" t="n">
+        <v>1.831264864971318</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n"/>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="n">
+        <v>3.05568765808028</v>
+      </c>
+      <c r="D18" s="4" t="n">
+        <v>2.787425039016366</v>
+      </c>
+      <c r="E18" s="4" t="n">
+        <v>2.736169111410885</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
         <is>
           <t>No ha trabajado</t>
         </is>
       </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="B19" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>1,64</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>1,94</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>1,83</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>1,07; 2,45</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>1,38; 2,75</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>1,43; 2,39</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="C19" s="4" t="n">
+        <v>1.641734229337705</v>
+      </c>
+      <c r="D19" s="4" t="n">
+        <v>1.939492510313602</v>
+      </c>
+      <c r="E19" s="4" t="n">
+        <v>1.829240884171249</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n"/>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="n">
+        <v>1.066766266305262</v>
+      </c>
+      <c r="D20" s="4" t="n">
+        <v>1.379989509724876</v>
+      </c>
+      <c r="E20" s="4" t="n">
+        <v>1.426331656401131</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n"/>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="n">
+        <v>2.449068606289242</v>
+      </c>
+      <c r="D21" s="4" t="n">
+        <v>2.747475415995561</v>
+      </c>
+      <c r="E21" s="4" t="n">
+        <v>2.38793869995957</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B16" s="3" t="inlineStr">
+      <c r="B22" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>2,25</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>2,33</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>2,29</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n"/>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>2,08; 2,44</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>2,15; 2,51</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>2,17; 2,41</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="C22" s="4" t="n">
+        <v>2.248955181840705</v>
+      </c>
+      <c r="D22" s="4" t="n">
+        <v>2.330930123970988</v>
+      </c>
+      <c r="E22" s="4" t="n">
+        <v>2.292025053777112</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n"/>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="n">
+        <v>2.083907669776794</v>
+      </c>
+      <c r="D23" s="4" t="n">
+        <v>2.149682735090664</v>
+      </c>
+      <c r="E23" s="4" t="n">
+        <v>2.166355650360756</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n"/>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="n">
+        <v>2.437897722756103</v>
+      </c>
+      <c r="D24" s="4" t="n">
+        <v>2.511456306939826</v>
+      </c>
+      <c r="E24" s="4" t="n">
+        <v>2.412092947017802</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
@@ -902,14 +897,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
